--- a/data/BDI/bdi_df_normalized.xlsx
+++ b/data/BDI/bdi_df_normalized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,85 +451,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>BDI_ratio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BDI_diff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AGE_AT_OP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MAD_L</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MAD_R</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>alpha_L</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>alpha_R</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>beta_L</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>beta_R</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>theta_L</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>theta_R</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>X_L</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Y_L</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Z_L</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>X_R</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Y_R</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Z_R</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LEDD_ratio</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Pat_ID</t>
         </is>
@@ -546,54 +556,60 @@
         <v>0.783513043478261</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.9465181677522376</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>-0.487597195407601</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.008250279055648981</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>2.507180178739487</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>3.225669339290639</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>-0.3992516980009544</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>-0.3388734112095701</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>-0.3840956092900992</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.07363848838236353</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.9605421964214014</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>-1.223649870811642</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-1.216535757954172</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>-0.9191123573401618</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>-0.8704105151579082</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>-1.492052496131273</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1.533642621564496</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -608,54 +624,60 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.6861273036814595</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.1630157360890016</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.179904387963252</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>-0.5238591401304318</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>-0.1894938282717072</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>-0.5416820110689541</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.00354200441159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.807037089467722</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.9290630678435715</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.3584934665996427</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.2020523290280011</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.1892329706120839</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>-0.3186607686418713</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.007392877189634219</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>0.1681651272258457</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>-0.1626749030717454</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -670,54 +692,60 @@
         <v>-0.7355428571428572</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.1560771297402072</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>-0.2563077119496146</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>-0.5418892043769618</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>-1.142718208485048</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.9897565408481339</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2.426854538065481</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.4429513325637429</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.546378266191591</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.395424321797141</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>-0.551591116363784</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>-1.00861049778652</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.1238721277466395</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>-0.315307454232469</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>-0.530755406364387</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.6562050496600911</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>3.837745515333999</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -732,54 +760,60 @@
         <v>0.4290666666666667</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>-1.677326375241678</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>-0.3691304895120066</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.8883259369225908</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>-0.7033211597395389</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>-0.3178700935603931</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>-0.2676596713083021</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>1.143764887501625</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.846123212149357</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.2757904007352913</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.367178177654362</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.116498993020969</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.331093697949441</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.1809830783590154</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>-0.09010873928974733</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>-0.1025091560679503</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>-0.4527064254355834</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,54 +828,60 @@
         <v>1.430222222222223</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.1826583327883994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>-1.236335466304429</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>-0.99456138165788</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>-1.172028968378657</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.0347249752827331</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>-1.318101995794338</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>-0.9965447755392931</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.586776110906669</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.70516764483748</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>-1.769899467494617</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.444104620245655</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>1.663401601275243</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>-0.1057253036448484</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>-1.233628713346507</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>0.9469775705988251</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>-0.232703762054708</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -856,54 +896,60 @@
         <v>0.6774736842105263</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.3598080609977327</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.1764176062993295</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>1.024503591993158</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>-0.182032968310406</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>-0.8579955743129326</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-0.6002720725813838</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>-0.8352784077938555</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3989738348344706</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-1.222883254313264</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-0.1949563448285222</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>-0.3919936799446166</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>-0.801525411133772</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>-1.026316805393249</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>-1.297169635059582</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>-0.4147902310829424</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>-0.4318658370022538</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -918,54 +964,60 @@
         <v>0.5148800000000001</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.825853496020312</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>-1.455670080861524</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-1.422357204105247</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.2436938012879242</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>1.741024057060363</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-1.193851168435329</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>-0.5821627590638045</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.81032900521091</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.7677402169225037</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.7261915969831634</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-0.2892841658140347</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.3764494525576245</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>1.377811475751013</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>-0.06206890313761201</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>-1.27859348755952</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>-0.527751489785055</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -980,54 +1032,60 @@
         <v>0.1354947368421053</v>
       </c>
       <c r="D9" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>-1.532878521835054</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>-1.193791200007771</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-0.6808969568359678</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.014216563184989</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.2459133805443562</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>-0.1537303248446001</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>-0.9929628994146266</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.26945412957495</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.177643208409204</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.2347529689082938</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-0.6407967629586282</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.4721067583346183</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>0.07687790828531048</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>-1.282223077338438</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>0.1895934210293763</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>-0.3534785861468164</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1042,54 +1100,60 @@
         <v>1.219452631578947</v>
       </c>
       <c r="D10" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.9327029372206104</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.6152198018862299</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-0.1561784053928316</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>-0.7105659809706778</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>-0.1333574619918312</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>-0.6030556015551007</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>-0.07087802022472613</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2475684344876502</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.1566298844846165</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-0.3875903300109088</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-0.1251627306999307</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>0.9554207304100356</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>1.149786095911681</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>-0.9039379763670817</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>1.791855392849967</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>5.835941134321649</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1104,54 +1168,60 @@
         <v>0.5720888888888889</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
         <v>-0.334975621307974</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>-1.209104811306568</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-0.5368662429631493</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.028389107230798</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>0.6511182071653779</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>-0.199541000339724</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>-0.1983202780189691</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.593932684553076</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>1.243594742270104</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-3.137598396703843</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-0.1385654311787035</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>1.237794290461163</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>2.42229270258859</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0.8158548342715435</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>3.542564225554651</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>-0.1553558868957545</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1166,54 +1236,60 @@
         <v>0.7355428571428572</v>
       </c>
       <c r="D12" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.5677360243154995</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>1.230061714562491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>0.3499021158658364</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0754563273890809</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>0.09193749164145548</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>-0.2428355778202943</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>0.3105802514277176</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1845995837932349</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05288916753259407</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-1.35447151954565</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>-0.3466773357777173</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>0.4679374618491127</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>-1.943585477408696</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>7.604618710278931e-05</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>0.5645901719243714</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>-0.107273672153144</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1228,54 +1304,60 @@
         <v>1.103314285714286</v>
       </c>
       <c r="D13" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.1326437007371958</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>-0.1940993470286676</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>-0.3453808707142257</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>-0.2723030500517362</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>1.109243126759321</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>-0.1766356625921621</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>-0.7368669978043327</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3915347220622851</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.05103796731293826</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-0.2884429038994454</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>-0.7306894309390125</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>-1.067313873951094</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>0.3584038952928272</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>-0.259864088093653</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>1.064048576381957</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>-0.777472261854971</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1290,54 +1372,60 @@
         <v>0.904518918918919</v>
       </c>
       <c r="D14" t="n">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.3809680976347794</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>-0.6777013026422454</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>-0.6649630939765306</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>1.34583555788179</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>0.05067058569656034</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>-1.376744237909448</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>-1.491740060785032</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.770025631337398</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>3.268576109756407</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.02025064830893775</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>-1.031222421295894</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.5699533654635879</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>-1.098001522063327</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>-1.865355445241601</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>0.456506862144318</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>-0.6291194229796985</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1352,54 +1440,60 @@
         <v>-0.792123076923077</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.3076923076923077</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.475693960014273</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>-1.267451119398226</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>-0.1561784053928316</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>1.000695618848436</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>-0.1333574619918312</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.3295094897252401</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>-0.07087802022472613</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1917669480666327</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.1566298844846165</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>0.7976219056113791</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>2.679239717072056</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>1.408724979172257</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>-0.7163841832549618</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>1.510836069954528</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>0.5315517503106656</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>-0.5189027155382913</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1414,54 +1508,60 @@
         <v>-2.096787600152455</v>
       </c>
       <c r="D16" t="n">
+        <v>-0.8144762275296982</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="n">
         <v>-1.724542985919387</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.3955165515882344</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>0.7606725706309546</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>-1.215405757116174</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>-1.538031949076109</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>2.137500390185842</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1.05239228689837</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.348214390229951</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.830372094708597</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-0.3151734798293437</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>-0.3629784734610155</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>-0.2461508381356297</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>1.006355693218626</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>-1.102719973499004</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>-0.4853519198739061</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>-0.2274711879545796</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1476,54 +1576,60 @@
         <v>0.2340363636363637</v>
       </c>
       <c r="D17" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
         <v>-1.349608121871203</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>-0.8070422765860482</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>1.468820328698792</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>-1.224917915912169</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>-1.132283446261146</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>1.287409893922881</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2.416067012537669</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.8171561798056532</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-1.906603109113017</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-0.3794631020402724</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>2.616639640341972</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>0.8085262871003202</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>1.194242913192908</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>2.513312050593638</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>0.2029512945335521</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>-0.4246224617540843</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1538,54 +1644,60 @@
         <v>0.7474064516129033</v>
       </c>
       <c r="D18" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.5009332640233308</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>-0.4043438871049029</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>-1.662171675940868</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>-0.512333972745021</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>-0.9120292019474673</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>-0.6142070058155203</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>-1.392658646420333</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5550229467414057</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.517688902510035</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>0.5244438493235197</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>0.7549549232121759</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>0.07652591708934578</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>-0.6319670308475825</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>1.476969242458933</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>1.435556391157659</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>-0.2755614237522812</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1600,54 +1712,60 @@
         <v>0.2145333333333334</v>
       </c>
       <c r="D19" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
         <v>-1.396474979877226</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>-0.9710367899609699</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>1.539055472646919</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>2.507180178739487</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>1.748648380810227</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>0.07010305103936085</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>-0.2437438852560528</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.114439845949811</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.7030965406554321</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>0.5462886980047948</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>1.819766749502848</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>0.3300555619617325</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>-0.7873423433888905</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>-0.5034496555925787</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>-1.621401117258141</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>-0.1645655049760348</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1662,54 +1780,60 @@
         <v>1.864220689655173</v>
       </c>
       <c r="D20" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.92409966383012</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.5960659907221244</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>-0.5616301720223574</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>-0.815262998139851</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>-0.4184775458942023</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>-1.645114927538511</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>1.092402229224845</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2.416067012537669</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.6811880860625786</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.661029097340539</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-1.148378288885447</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>1.331435582529308</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>0.982104648614357</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>0.1947265841177666</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>-0.3358725112466758</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>0.2190266119291429</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>-0.5412789262772346</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1724,54 +1848,60 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>-0.617226027359172</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>1.758859684632215</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>-1.562599981690136</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>-0.6833082060393446</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>-0.3060936320046566</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>1.205783197695538</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>-0.8425374316582532</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.7993476422883207</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04485396974659575</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>0.1232737733799818</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>1.43333312106115</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>-0.5923238457974409</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>-0.5825818550000269</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>1.596089213439332</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>-0.5496253271072603</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>-0.1404176325418011</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1786,54 +1916,60 @@
         <v>1.02976</v>
       </c>
       <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
         <v>-0.2744684091061681</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>0.476232250977154</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>-0.3747714470332136</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>-0.4342218345486001</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>-0.07466282726748903</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>0.4778424504123444</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>-0.628804811844251</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.2218157944310928</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.08448250810623648</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>-0.9511874259877949</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>-0.648546487185223</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>-0.980365625742468</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>-0.01503339120875108</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>-0.3252342157522193</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>-2.14056218280066</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>0.1153844287802096</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1848,54 +1984,60 @@
         <v>-0.2491354838709678</v>
       </c>
       <c r="D23" t="n">
+        <v>-0.09677419354838709</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F23" t="n">
         <v>-0.9271068944736226</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>-0.8133465021961761</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>-0.5125309334032833</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>-0.4553772837496119</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>-1.272826314654445</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>0.4463120333812775</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1.513682276358634</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.07865570369230421</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-1.486526225094459</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-0.09080574369650932</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>-0.4275046727174836</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>0.2195692050958307</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>1.436392864867772</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>-0.3405899409063993</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>1.220436452433341</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>-0.3037091840778195</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1910,54 +2052,60 @@
         <v>2.014747826086957</v>
       </c>
       <c r="D24" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18.92409966383012</v>
+      </c>
+      <c r="F24" t="n">
         <v>-0.2744684091061681</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>-1.401308118146714</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>-1.10706312509346</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>0.1614887818886918</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>0.331607195967394</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>-0.8870230598427354</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>-1.347936710091634</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.141850266287079</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>1.306197364294457</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-1.243015810753034</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>-0.3262032687159616</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>0.2227024565209323</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>-0.009292113017892536</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>0.4772106037780019</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>-1.696299401311555</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>0.1644667604290417</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1972,54 +2120,60 @@
         <v>1.743948387096774</v>
       </c>
       <c r="D25" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.92409966383012</v>
+      </c>
+      <c r="F25" t="n">
         <v>-1.584991669916379</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>-0.2845111443898557</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>-0.5449364389808476</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>0.07876854829939316</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>-0.3499400730385556</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>0.6970182926660766</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>0.5309906135792973</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.4464655117436058</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.6421572536167235</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>-1.82967918546167</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>0.900637364195361</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>1.543322930171204</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>2.278023971293184</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>1.17825470481463</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>0.64982832111486</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>-0.769997789210106</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2034,54 +2188,60 @@
         <v>1.144177777777778</v>
       </c>
       <c r="D26" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.2379192549149046</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>0.1157156525893641</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>0.1457896605804988</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>-0.5029028600128986</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>-0.7132216959754567</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>0.9436013703219701</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>-0.9487440500207461</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.8393171724800754</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.627994157568574</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>-0.8986188546451145</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>0.8451764898126216</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>0.608879355357232</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>1.314428750093518</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>0.5742308544520524</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>0.8912463222261159</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>-0.5714118389347036</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2096,54 +2256,60 @@
         <v>1.208391836734694</v>
       </c>
       <c r="D27" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18.92409966383012</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.03733609770255916</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>-0.7939516742054481</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>-1.011862448088839</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>0.1000247316868011</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>-0.2581468366180725</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>0.2586764338844573</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>-0.07087802022472613</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.5915128847125897</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.5593887741790495</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>-0.8539895892006075</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>1.377769463161627</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>1.116723527723524</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>-0.2472504140598347</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>0.6681703307574037</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>0.7217167835160672</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>-0.1282780080670212</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2158,54 +2324,60 @@
         <v>0.3218</v>
       </c>
       <c r="D28" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.2310990778170126</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>-0.7227846187646816</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>-0.5615635042560698</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>2.507180178739487</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>1.56484536608158</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>-0.9982503708919925</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>-1.562425917516103</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4940685490925439</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1.692922527769505</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>0.2955192284286937</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>-1.641374287286878</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>0.2569965966234963</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>0.03084604684715711</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>1.164174614207757</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>2.724714356040597</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>-0.3641339245939323</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2220,54 +2392,60 @@
         <v>0.5419789473684211</v>
       </c>
       <c r="D29" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.3814927266423104</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>0.912478818271347</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>0.6363514705591554</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>-0.2938414012680562</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>0.2423371317263358</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>0.08652141628693552</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.8398297663245453</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.9447402776082761</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.6446467695906866</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>0.8057491265352894</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>0.2741843605210794</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>-1.684235802598224</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>-0.5115525588736047</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>-1.533642951662213</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>-0.5324885918062736</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>-0.5752003095782925</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>33</v>
       </c>
     </row>
@@ -2282,54 +2460,60 @@
         <v>1.184130603783364</v>
       </c>
       <c r="D30" t="n">
+        <v>0.4599637211712879</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.813819577735124</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.699185917222098</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>1.725357647343267</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>-0.3422033979992792</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>-0.4843429629040658</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>-1.154411523943959</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>-0.5694319829163433</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>-1.526620960019258</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2161210610371837</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>1.504760691274135</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>-0.1651721832023489</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>0.3189765192360977</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>-0.2216311050393947</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>0.277886243621619</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.04428993513893038</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>-0.2783032171720351</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>0.0565854544039107</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2344,54 +2528,60 @@
         <v>1.2872</v>
       </c>
       <c r="D31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.270796006053457</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>0.2550377667911735</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>-1.081460730413603</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>-0.2809088668606535</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>-0.1333574619918312</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>-0.9279217624387839</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>-1.04917387933429</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.319146744132023</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.4707469494527334</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>-0.4620742172886735</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>1.069753984488407</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>0.5786540530436802</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>0.4042325230142633</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>0.9513606659377157</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>0.7431991312594742</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>-0.2224179232472904</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2406,54 +2596,60 @@
         <v>0.6436000000000001</v>
       </c>
       <c r="D32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.8545332150986249</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>-0.2370648547700994</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>-0.874891703840402</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>1.364732798257033</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>1.322208809714169</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>-0.3219213667936914</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>-1.048964486688043</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.5242669150718614</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-1.041189756200535</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>1.494878935009866</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>-1.307416765762914</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>-1.825366067935508</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>-0.2312713602807041</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>-1.663179785245458</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>-1.082895291594598</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>-0.1348874518273058</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2468,54 +2664,60 @@
         <v>0.7355428571428572</v>
       </c>
       <c r="D33" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
         <v>-2.131655095762751</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>1.633568186548258</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>1.943167135031076</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>1.449306064678199</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>0.81180556827077</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>0.2868675036922258</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.1549893485753173</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.42035589777817</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.1855458804717705</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>2.032856491107508</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>-0.6079375318835181</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>-1.306839121928289</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>-0.5436376808362909</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>-0.9417255675547458</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>-0.9073641291980928</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>-0.009843921227327671</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2530,54 +2732,60 @@
         <v>0.5148800000000001</v>
       </c>
       <c r="D34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.2954535694073726</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>-1.173374844444443</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>-0.1561784053928316</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>0.1585485176508732</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>-0.1333574619918312</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>-0.5042003617086003</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>-0.07087802022472613</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.5926233694407356</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.1566298844846165</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>0.7585595532179061</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>-0.6252973206723257</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>-0.3812071605855435</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>-0.7029201152828821</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>-1.24263034632938</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>-0.6651926505629223</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>-0.06513849960227454</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2592,54 +2800,60 @@
         <v>1.04882962962963</v>
       </c>
       <c r="D35" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.983242198279345</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>1.817775000534927</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>1.475211778339238</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>-0.7648461165598699</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>-0.8219807952142478</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>-0.8514434540926158</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.5364460685768402</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.3799663056272388</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.3625656272723984</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>0.8251276213331943</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>-1.058418395917081</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>-0.9592742599370254</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>0.784808307124731</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>-0.1192797988034766</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>0.5258334970330197</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>0.1620909333476423</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2654,54 +2868,60 @@
         <v>0.7021090909090909</v>
       </c>
       <c r="D36" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.200788360068495</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>1.08138035302145</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>0.8173949574245906</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>0.01271119942296491</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>-0.5644744733403027</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>-0.2724210303862791</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>-0.3303531049680245</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.746423871057472</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>1.09537573662902</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>0.07197361260589222</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>0.4567859044061913</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>-0.6539025967512884</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>0.6160502216222647</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>0.3843060718967308</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>-0.4356648798642863</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>0.4373206758789513</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2716,54 +2936,60 @@
         <v>-0.3357913043478261</v>
       </c>
       <c r="D37" t="n">
+        <v>-0.1304347826086956</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.260596066926928</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>0.5362264343675265</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>2.013648211564932</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>-1.174027698036698</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>-1.288991255337655</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>-0.4178765836976928</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.8039553002521964</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-1.041354746718483</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.8674433608785528</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>0.4997803104898224</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>0.678177171730593</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>-0.05306134325382798</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>-0.9919910597115532</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>-0.0206469589625011</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>-0.7152695325009247</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>-0.2066717008754414</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2778,54 +3004,60 @@
         <v>0.9484631578947369</v>
       </c>
       <c r="D38" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.3697760121408039</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>-0.568276680775213</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>-0.1561784053928316</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>-0.2636972332428189</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>-0.2126783097217352</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>-1.053790431969296</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.3655387045389506</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.195898034179314</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.07872630127592287</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>-0.6721605876336587</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>-0.06300050299436075</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>0.1138402855195131</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>0.03422476261320984</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>-0.2112697241017231</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>0.3763694392803442</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>-0.3965621079621872</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2840,54 +3072,60 @@
         <v>0.3900606060606061</v>
       </c>
       <c r="D39" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.950715199812477</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>-0.7628661656597125</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>-1.031250367568066</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>-0.7218611982788903</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>0.2549055681370461</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>-1.210340125575053</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>-0.962005190553738</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.7598383780030556</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>1.382893860074138</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>0.270291951564512</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>0.9359941909433853</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>-0.4870553885993933</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>-0.8143416077043737</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>-0.05025125203336526</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>0.06673864367947384</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>-0.2489896734997858</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2902,54 +3140,60 @@
         <v>0.04680727272727273</v>
       </c>
       <c r="D40" t="n">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
         <v>-0.7252996029103747</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>0.2178748523966375</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>0.01760884135802527</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>-1.100518098960901</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>-0.637266506411464</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>-0.22487005695242</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.4841704181477681</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.08277545183482564</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.4194399639356443</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>-0.7455639793685706</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>-0.2341727442879576</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>0.3575787771299573</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>0.4197797080033089</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>-0.2340866914441444</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>-0.4462135897690657</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>-0.2238941315946512</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>68</v>
       </c>
     </row>
@@ -2964,54 +3208,60 @@
         <v>-1.54464</v>
       </c>
       <c r="D41" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.274586173794398</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>0.9673859784094789</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>2.013648211564932</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>-1.202927070335342</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>-0.01178173874604291</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>-1.166397422614731</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.6270110722904957</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.4131426353710486</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.06473759889259248</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>-0.5600471868210519</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>-0.2807738608305342</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>-0.08759617860063731</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>-0.1232539926030855</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>1.498558714722807</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>0.1121930931209603</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>0.2239874809946314</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3026,54 +3276,60 @@
         <v>2.231146666666667</v>
       </c>
       <c r="D42" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.48129000276126</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>-1.320686403581786</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>1.751073810848852</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>-1.064038048307688</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>-0.205951693845237</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>-1.536035617721383</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.6636116638413644</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.5386856113007622</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.7125172850939682</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>1.184745504264195</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>0.06952591301682018</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>0.734586156019619</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>0.6234427556611739</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>0.8589856393305345</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>0.1793444647911843</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>-0.1879601713695537</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3088,54 +3344,60 @@
         <v>1.177718909991742</v>
       </c>
       <c r="D43" t="n">
+        <v>0.4574731626754748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>15.17808219178082</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.168960866945003</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>1.732758453607608</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>1.976114100139714</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>0.1024346582372628</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>-1.327768593700078</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>1.00876156538296</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.04301964066297491</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.044062734940326</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.331040720975232</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>1.753942400359469</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>-1.344150855867877</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>-2.413927569098751</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>-0.143678725823988</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>-0.7891792231951714</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>-1.620586209888554</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>-0.593551221855914</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3150,54 +3412,60 @@
         <v>-1.54464</v>
       </c>
       <c r="D44" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.2665989739932157</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>1.604656032763066</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>-0.4921055876117206</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>0.5221303240943707</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>0.02712401287265254</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>0.2452553357816563</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.06360486966097839</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.7742535914717545</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.4820586706074177</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>-0.3358908524496499</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>-0.7200412695078912</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>0.2646528628758478</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>1.829823015800167</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>1.115291427844403</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>-0.02718744784750654</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.5215910838225792</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3212,54 +3480,60 @@
         <v>0.5720888888888889</v>
       </c>
       <c r="D45" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.9353260822582603</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>1.817775000534927</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>0.916626876508947</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>2.507180178739487</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>1.065665379384517</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>0.4480295282534397</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>-0.9748101333383496</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.8934986237104026</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.3814962105983102</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>0.964300447609057</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>-2.089028663194353</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>-1.915625478482819</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>-0.9464875967914606</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>-2.271006465905292</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>-1.999899089258764</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>2.28581903520236</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3274,54 +3548,60 @@
         <v>-0.4290666666666667</v>
       </c>
       <c r="D46" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F46" t="n">
         <v>-0.197173068663399</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>-1.254761064907947</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>-0.6604850346234972</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>0.2478185651254652</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>-1.307171875989962</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>-0.4914193836426154</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>-0.1385517268803267</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.9420428527401721</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>1.647409427728052</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>-1.566742374758761</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>1.380400670622783</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>0.5367308538599572</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>-0.1905743172211444</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>-0.6111202312128541</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>-0.06633560594141541</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>0.1186484047829834</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>78</v>
       </c>
     </row>
@@ -3336,54 +3616,60 @@
         <v>-0.7021090909090909</v>
       </c>
       <c r="D47" t="n">
+        <v>-0.2727272727272727</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.1350919694390026</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>-0.669497867350671</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>-0.2789191834782908</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>-0.3281147959276406</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>-1.039835105372042</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>-0.3144314804667341</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.03374873235814904</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.04516460279112511</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.2006093137813987</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>1.100537135960571</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>-0.7409470187064913</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>0.3483464665735975</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>-2.002603811014171</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>-0.4893334621892761</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
         <v>0.2862074675665724</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>-0.6741376775397113</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3398,54 +3684,60 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>-2.282398497259735</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>-0.5465135109240717</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>1.115267895439194</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>0.09893686401741002</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>-0.4830084753012097</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>-1.179453386638371</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>2.416067012537669</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.134048464525815</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-1.591796803126339</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>-1.174639087821092</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>0.2710803624498763</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>-0.4689654139386373</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>1.046087385650241</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>0.7476205490228449</v>
       </c>
-      <c r="R48" t="n">
+      <c r="T48" t="n">
         <v>0.7115513700989513</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>-0.5412789262772346</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3460,54 +3752,60 @@
         <v>-0.2145333333333334</v>
       </c>
       <c r="D49" t="n">
+        <v>-0.08333333333333333</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.8937055143275392</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>1.075361096026254</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>-2.007774988790249</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>-0.8911190657641244</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>1.001292501578895</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>1.158509852804115</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>-1.311866290685876</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.943403205802023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.1821351154606057</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>1.821605057468372</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>-0.4611553251547336</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>-1.806790514652592</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>-1.338091212607393</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>-1.030008941493248</v>
       </c>
-      <c r="R49" t="n">
+      <c r="T49" t="n">
         <v>-2.193163216655075</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>-0.03641567147982304</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3522,54 +3820,60 @@
         <v>0.102976</v>
       </c>
       <c r="D50" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.6163516456799548</v>
       </c>
-      <c r="E50" t="n">
+      <c r="G50" t="n">
         <v>0.2994950371800566</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>-0.01728025200066695</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>0.597097968755871</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>2.659340398657261</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>1.550309518055824</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.9628590244419742</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.9616099229570257</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.8228089131450746</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>-0.8274704150321404</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>0.1805504514659701</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>0.1483876789882669</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>0.2373035180987433</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>1.329631325790501</v>
       </c>
-      <c r="R50" t="n">
+      <c r="T50" t="n">
         <v>-0.09682694202621793</v>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>-0.6379034726499448</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V50" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3584,54 +3888,60 @@
         <v>0.5148800000000001</v>
       </c>
       <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.953805862210044</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G51" t="n">
         <v>-1.466898240393132</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>-0.1561784053928316</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>-0.8485456133352975</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>-0.1333574619918312</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>-1.422946725498121</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>-0.07087802022472613</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.266703468271762</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.1566298844846165</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>-1.073048794561954</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>0.9699942962372976</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>2.117201895854265</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>0.9484348079653209</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>1.560655524578765</v>
       </c>
-      <c r="R51" t="n">
+      <c r="T51" t="n">
         <v>-0.03914811054378544</v>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>0.1673010804559747</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V51" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3646,54 +3956,60 @@
         <v>0.102976</v>
       </c>
       <c r="D52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
         <v>-0.1859809831694235</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G52" t="n">
         <v>-0.2947164935486924</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>-0.05293249489434267</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>-0.3032284991517165</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>-0.3459407163745573</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>-0.4834428969172115</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>-0.8039810634494693</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.4928124935485869</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.03214487894690522</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>-0.2788828441169043</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>0.54768582865025</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>0.2756809848702418</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>-0.4617355142359627</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>0.7760936187321151</v>
       </c>
-      <c r="R52" t="n">
+      <c r="T52" t="n">
         <v>-0.03106786716935631</v>
       </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
         <v>-0.5412789262772346</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>64</v>
       </c>
     </row>
@@ -3708,54 +4024,60 @@
         <v>1.014157575757576</v>
       </c>
       <c r="D53" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
         <v>1.012271670029344</v>
       </c>
-      <c r="E53" t="n">
+      <c r="G53" t="n">
         <v>0.9739771942715471</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>1.61665065136288</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>-0.8999185352487692</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>-0.9593331543028724</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>1.242620252550261</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1.847981622237343</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.141669219574127</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-1.56617717334151</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>-0.8817067137305798</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>0.3949320210840819</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>-0.08164571972634567</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>0.09387311540568943</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>1.101788981980375</v>
       </c>
-      <c r="R53" t="n">
+      <c r="T53" t="n">
         <v>0.3671032819489951</v>
       </c>
-      <c r="S53" t="n">
+      <c r="U53" t="n">
         <v>-0.5265168428036261</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V53" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3770,54 +4092,60 @@
         <v>-0.4290666666666667</v>
       </c>
       <c r="D54" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F54" t="n">
         <v>0.08927436944804032</v>
       </c>
-      <c r="E54" t="n">
+      <c r="G54" t="n">
         <v>0.4107229230840942</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>-0.5697988953398132</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>1.012536233784346</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>1.832555115046238</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>-1.073144185401735</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>-0.8668673878233868</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3821712334618668</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>1.363141945617927</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>-0.3889761813046989</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>-0.537583617612765</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>1.100002388354696</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>0.7583374489484783</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>-1.454216799520871</v>
       </c>
-      <c r="R54" t="n">
+      <c r="T54" t="n">
         <v>0.3266856769050788</v>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>0.9834564154841348</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V54" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3832,54 +4160,60 @@
         <v>0.7989517241379311</v>
       </c>
       <c r="D55" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
         <v>-1.248529599753736</v>
       </c>
-      <c r="E55" t="n">
+      <c r="G55" t="n">
         <v>-0.659813851579124</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>0.5961793245659639</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>0.05430920930802446</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>-0.09295673106630353</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>-0.4849855643666383</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>-0.3687155420091107</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.2423376468139104</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.4792222743101394</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>-0.1488707608364147</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>1.267916639536514</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>1.200867132883965</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>1.641732562109168</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>1.085470517994972</v>
       </c>
-      <c r="R55" t="n">
+      <c r="T55" t="n">
         <v>0.546550897989269</v>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>0.5343996582962697</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V55" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3894,54 +4228,60 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
         <v>0.8317992914389859</v>
       </c>
-      <c r="E56" t="n">
+      <c r="G56" t="n">
         <v>-0.3990268010884367</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>-0.5200967352491122</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>2.507180178739487</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J56" t="n">
         <v>0.8204581459602859</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>-1.094477800143355</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.08835137764971818</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.7329239850798742</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.2472575938400059</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>1.604709196799009</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>-2.011408101675683</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>-3.299191447451562</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>-0.5835090997824102</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>1.425581727856885</v>
       </c>
-      <c r="R56" t="n">
+      <c r="T56" t="n">
         <v>0.4128402860761987</v>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>-0.5006397788322418</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V56" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3956,54 +4296,60 @@
         <v>0.1225904761904762</v>
       </c>
       <c r="D57" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.1149811908170154</v>
       </c>
-      <c r="E57" t="n">
+      <c r="G57" t="n">
         <v>0.4471139560872608</v>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>0.2667690150105135</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>-0.08939148080044911</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>0.5393259347321916</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>1.19489485237648</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.7654877851718357</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-1.005716281014204</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.9876877346011314</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>0.9705015659443872</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>-1.350461641693953</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>-0.6391677315769624</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>-1.354464021709879</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>-0.9652164585775281</v>
       </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
         <v>-0.7915855039774597</v>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>-0.2838989143666992</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V57" t="n">
         <v>69</v>
       </c>
     </row>
@@ -4018,54 +4364,60 @@
         <v>1.02976</v>
       </c>
       <c r="D58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.1496067053140022</v>
       </c>
-      <c r="E58" t="n">
+      <c r="G58" t="n">
         <v>-2.241156065628294</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>2.013648211564932</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>-0.7422311609187978</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J58" t="n">
         <v>-1.246306789543259</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>-0.125610523215176</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.8109203867316044</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.8031446458299037</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-1.414840978996571</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>-0.3661682848524973</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>0.3009075383653311</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>0.5211650617100042</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>0.9906814862039869</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>-0.01292096052693423</v>
       </c>
-      <c r="R58" t="n">
+      <c r="T58" t="n">
         <v>-0.02794256664559578</v>
       </c>
-      <c r="S58" t="n">
+      <c r="U58" t="n">
         <v>0.2075613081112707</v>
       </c>
-      <c r="T58" t="n">
+      <c r="V58" t="n">
         <v>71</v>
       </c>
     </row>
@@ -4080,54 +4432,60 @@
         <v>-0.3677714285714286</v>
       </c>
       <c r="D59" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F59" t="n">
         <v>-0.06146903204894464</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>1.817775000534927</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>-0.7067050749410809</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>0.3906658433631802</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>1.468412016627891</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>2.165538037225311</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1.467832935498664</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.8234253501872533</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.534515025328906</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>1.178685320436487</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>0.1227872682421362</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>-0.8308193214961428</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
         <v>-0.3288223249178511</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>-1.177212079202056</v>
       </c>
-      <c r="R59" t="n">
+      <c r="T59" t="n">
         <v>-0.1952739085246758</v>
       </c>
-      <c r="S59" t="n">
+      <c r="U59" t="n">
         <v>-0.2034333268404762</v>
       </c>
-      <c r="T59" t="n">
+      <c r="V59" t="n">
         <v>80</v>
       </c>
     </row>
@@ -4142,54 +4500,60 @@
         <v>0.3677714285714286</v>
       </c>
       <c r="D60" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
         <v>1.297669850125723</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G60" t="n">
         <v>0.07225399412985301</v>
       </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
         <v>-0.1561784053928316</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>1.667970375866837</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>-0.1333574619918312</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>2.3041580673714</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>-0.07087802022472613</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-1.618126702418751</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.1566298844846165</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>1.474648963243991</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>-0.7988027052453629</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>-0.4923078231025941</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R60" t="n">
         <v>1.261817281862155</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>0.6579652688200821</v>
       </c>
-      <c r="R60" t="n">
+      <c r="T60" t="n">
         <v>0.1579669522071703</v>
       </c>
-      <c r="S60" t="n">
+      <c r="U60" t="n">
         <v>-0.4044782120652119</v>
       </c>
-      <c r="T60" t="n">
+      <c r="V60" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4204,54 +4568,60 @@
         <v>-0.9901538461538463</v>
       </c>
       <c r="D61" t="n">
+        <v>-0.3846153846153846</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F61" t="n">
         <v>-1.358002185991685</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G61" t="n">
         <v>1.539800127132069</v>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>-0.7910152116934909</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
         <v>-0.9604376838448871</v>
       </c>
-      <c r="H61" t="n">
+      <c r="J61" t="n">
         <v>-1.000365522654706</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>-0.7322564185671975</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>-0.4529339640838499</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.791796892104463</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.6301482385075192</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>-0.6802408350861777</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>-0.08398847530625358</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>0.4294844924556834</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>-0.3457159189904542</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>-0.06105802483763108</v>
       </c>
-      <c r="R61" t="n">
+      <c r="T61" t="n">
         <v>0.1787908246829926</v>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>0.3927829042449342</v>
       </c>
-      <c r="T61" t="n">
+      <c r="V61" t="n">
         <v>73</v>
       </c>
     </row>
@@ -4266,54 +4636,60 @@
         <v>-0.7571764705882353</v>
       </c>
       <c r="D62" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.4963864792914033</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>-0.4062878440616065</v>
       </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
         <v>-0.3851957495562864</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I62" t="n">
         <v>0.3153206700664951</v>
       </c>
-      <c r="H62" t="n">
+      <c r="J62" t="n">
         <v>1.071357964850108</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>-0.4687756507102167</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>-0.007457473378161804</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.4566862913513635</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.2983527798979009</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>0.06809791364631024</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>-0.14269724591707</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>1.67921227680311</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R62" t="n">
         <v>-0.968136800390126</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="S62" t="n">
         <v>0.5943280753900539</v>
       </c>
-      <c r="R62" t="n">
+      <c r="T62" t="n">
         <v>-0.1783026077636782</v>
       </c>
-      <c r="S62" t="n">
+      <c r="U62" t="n">
         <v>-0.6433181409740456</v>
       </c>
-      <c r="T62" t="n">
+      <c r="V62" t="n">
         <v>66</v>
       </c>
     </row>
@@ -4328,54 +4704,60 @@
         <v>1.377004651162791</v>
       </c>
       <c r="D63" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="E63" t="n">
+        <v>18.92409966383012</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.7184794258124826</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>-0.1940993470286676</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>-0.5404509702674982</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>-0.2723030500517362</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>-0.7659169294911894</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>-0.1766356625921621</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>-1.353428929872884</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.3915347220622851</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>2.076924107020856</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>1.282507079081867</v>
       </c>
-      <c r="N63" t="n">
+      <c r="P63" t="n">
         <v>-0.6151219560181408</v>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>-0.268104532500621</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>-1.724913809919444</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>0.08929809283273071</v>
       </c>
-      <c r="R63" t="n">
+      <c r="T63" t="n">
         <v>-0.1492281384649096</v>
       </c>
-      <c r="S63" t="n">
+      <c r="U63" t="n">
         <v>-0.4426682086735297</v>
       </c>
-      <c r="T63" t="n">
+      <c r="V63" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4390,54 +4772,60 @@
         <v>-0.8581333333333334</v>
       </c>
       <c r="D64" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F64" t="n">
         <v>-1.68886821340734</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>0.5793722459608721</v>
       </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
         <v>-0.5733769112935984</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I64" t="n">
         <v>-0.7916843060624189</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
         <v>-0.5587833295177642</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>1.329125749692194</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.6131357120091083</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-1.054071892917351</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.4915354755118498</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>-0.2558400521208499</v>
       </c>
-      <c r="N64" t="n">
+      <c r="P64" t="n">
         <v>-0.7114898498843006</v>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>0.4656393255333068</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>-0.5681524440211724</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>0.4203607360764166</v>
       </c>
-      <c r="R64" t="n">
+      <c r="T64" t="n">
         <v>-0.2482516835980452</v>
       </c>
-      <c r="S64" t="n">
+      <c r="U64" t="n">
         <v>-0.5925015773663822</v>
       </c>
-      <c r="T64" t="n">
+      <c r="V64" t="n">
         <v>76</v>
       </c>
     </row>
@@ -4452,54 +4840,60 @@
         <v>0.2145333333333334</v>
       </c>
       <c r="D65" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.6474796334600745</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>0.5955797689102273</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>1.056429288552415</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>-0.9449625729019582</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J65" t="n">
         <v>-0.6099865846937564</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>-0.03783957633796491</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2.031944592753545</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1185610233316508</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-1.158862483458531</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>0.3130186011561344</v>
       </c>
-      <c r="N65" t="n">
+      <c r="P65" t="n">
         <v>0.9246060029919613</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>-0.1098931241127317</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>-0.4132140759685786</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>-1.030803203014663</v>
       </c>
-      <c r="R65" t="n">
+      <c r="T65" t="n">
         <v>-0.3992652859891779</v>
       </c>
-      <c r="S65" t="n">
+      <c r="U65" t="n">
         <v>-0.227947304802723</v>
       </c>
-      <c r="T65" t="n">
+      <c r="V65" t="n">
         <v>83</v>
       </c>
     </row>
@@ -4514,54 +4908,60 @@
         <v>1.144177777777778</v>
       </c>
       <c r="D66" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
         <v>-0.04747892518147526</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>1.156478854447551</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
         <v>-0.7867376873342534</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>0.3155038148663127</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J66" t="n">
         <v>-0.3540122353343612</v>
       </c>
-      <c r="I66" t="n">
+      <c r="K66" t="n">
         <v>0.9967351516946106</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>-0.9264312361638676</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.6107604249196941</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.8255315670862838</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>-0.04838445690255134</v>
       </c>
-      <c r="N66" t="n">
+      <c r="P66" t="n">
         <v>-0.8359582034523133</v>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>-0.7804403243893019</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R66" t="n">
         <v>1.863508583276432</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="S66" t="n">
         <v>0.3347489690735775</v>
       </c>
-      <c r="R66" t="n">
+      <c r="T66" t="n">
         <v>1.150210556544878</v>
       </c>
-      <c r="S66" t="n">
+      <c r="U66" t="n">
         <v>-0.04376753322395259</v>
       </c>
-      <c r="T66" t="n">
+      <c r="V66" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4576,54 +4976,60 @@
         <v>-0.5148800000000001</v>
       </c>
       <c r="D67" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F67" t="n">
         <v>-1.668582558449509</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>-0.2082404797965769</v>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>1.056036563929307</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>-0.6980479196242243</v>
       </c>
-      <c r="H67" t="n">
+      <c r="J67" t="n">
         <v>-0.6425742912869994</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>-0.443287478702889</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.3495341621179442</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3719659015160044</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.2962916387937162</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>-0.9758744515571867</v>
       </c>
-      <c r="N67" t="n">
+      <c r="P67" t="n">
         <v>0.7072232126525412</v>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>0.6133605139640416</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>-0.151096661219549</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>0.5065982800702993</v>
       </c>
-      <c r="R67" t="n">
+      <c r="T67" t="n">
         <v>-0.09106118516340954</v>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
         <v>0.2981852855213445</v>
       </c>
-      <c r="T67" t="n">
+      <c r="V67" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4638,54 +5044,60 @@
         <v>0.9194285714285715</v>
       </c>
       <c r="D68" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
         <v>-0.5717581800398959</v>
       </c>
-      <c r="E68" t="n">
+      <c r="G68" t="n">
         <v>0.08218632836037412</v>
       </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
         <v>-1.023455366235492</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>-0.5208339444996484</v>
       </c>
-      <c r="H68" t="n">
+      <c r="J68" t="n">
         <v>0.6081947820125702</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>2.064265300443478</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>-0.1002547124117005</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.00987723146058</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.2547545435967428</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>-0.1442669026030331</v>
       </c>
-      <c r="N68" t="n">
+      <c r="P68" t="n">
         <v>-0.5640601261171363</v>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>0.04396689502145881</v>
       </c>
-      <c r="P68" t="n">
+      <c r="R68" t="n">
         <v>-0.8320735303793281</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>-0.2143023590016646</v>
       </c>
-      <c r="R68" t="n">
+      <c r="T68" t="n">
         <v>-0.6252975702138076</v>
       </c>
-      <c r="S68" t="n">
+      <c r="U68" t="n">
         <v>-0.2554313099246331</v>
       </c>
-      <c r="T68" t="n">
+      <c r="V68" t="n">
         <v>77</v>
       </c>
     </row>
@@ -4700,54 +5112,60 @@
         <v>0.9654</v>
       </c>
       <c r="D69" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6</v>
+      </c>
+      <c r="F69" t="n">
         <v>-0.3619065770278533</v>
       </c>
-      <c r="E69" t="n">
+      <c r="G69" t="n">
         <v>-0.7730056260044553</v>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>-0.6341664053781236</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>-0.09889086391881216</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>0.4892098269485295</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>-0.2964071132680916</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>-1.012792628749748</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3536443297659112</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.4731343913061097</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O69" t="n">
         <v>0.7158094239373153</v>
       </c>
-      <c r="N69" t="n">
+      <c r="P69" t="n">
         <v>-0.8759196355487524</v>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>0.1805113549217715</v>
       </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
         <v>-1.86439644701234</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>-0.3390254839876705</v>
       </c>
-      <c r="R69" t="n">
+      <c r="T69" t="n">
         <v>-0.494120122483125</v>
       </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
         <v>-0.1954243991812635</v>
       </c>
-      <c r="T69" t="n">
+      <c r="V69" t="n">
         <v>81</v>
       </c>
     </row>
